--- a/rep_output/table6.xlsx
+++ b/rep_output/table6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -26,109 +26,112 @@
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ recruiter presence</t>
   </si>
   <si>
-    <t xml:space="preserve">0.074</t>
+    <t xml:space="preserve">0.245</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">(0.364)</t>
+    <t xml:space="preserve">(0.156)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ no recruiter presence</t>
   </si>
   <si>
-    <t xml:space="preserve">0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.246)</t>
+    <t xml:space="preserve">0.442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.135)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ price shock $\times$ recruiter presence</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.075)</t>
+    <t xml:space="preserve">0.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.628)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ price shock $\times$ no recruiter presence</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.057)</t>
+    <t xml:space="preserve">1.780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.473)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ price shock $\times$ agricultural GDP, quartile = 1</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.590)</t>
+    <t xml:space="preserve">3.352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.075)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ price shock $\times$ agricultural GDP, quartile = 2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.644)</t>
+    <t xml:space="preserve">0.680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.552)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ price shock $\times$ agricultural GDP, quartile = 3</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.610)</t>
+    <t xml:space="preserve">-0.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.764)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ price shock $\times$ agricultural GDP, quartile = 4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.536)</t>
+    <t xml:space="preserve">-1.970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.691)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ agricultural GDP, quartile = 1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.132)</t>
+    <t xml:space="preserve">0.570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.304)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ agricultural GDP, quartile = 2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448</t>
+    <t xml:space="preserve">0.183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.202)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ agricultural GDP, quartile = 3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.121)</t>
+    <t xml:space="preserve">0.217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.188)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ agricultural GDP, quartile = 4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.101)</t>
+    <t xml:space="preserve">-0.055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
   </si>
   <si>
     <t xml:space="preserve">\addlinespace[12pt] \textbf{Number of villages}</t>
@@ -697,18 +700,18 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -719,18 +722,18 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -741,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -757,13 +760,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
